--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-8.075898198142697</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.41056988758588</v>
+        <v>-10.35347435489312</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.189235316872195</v>
+        <v>-3.197195436999965</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.52048331218338</v>
+        <v>-7.386051546604537</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.911064076428595</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.9634971135005</v>
+        <v>-10.91057802541424</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.281614605723414</v>
+        <v>-3.294536708628198</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.394757927994284</v>
+        <v>-7.267906605760801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.592643051735454</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.11695199510837</v>
+        <v>-11.06598366014553</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.177426059708958</v>
+        <v>-3.193830715169641</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.011140362428869</v>
+        <v>-6.888845161584306</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.107551306733763</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.57578484049951</v>
+        <v>-11.52621738194073</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.321087898791219</v>
+        <v>-3.337387815829167</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.712465657700572</v>
+        <v>-6.592081933070901</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.432108187756929</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.98726282651211</v>
+        <v>-11.94582568801805</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.393435964294597</v>
+        <v>-3.414540756475459</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.430156331524433</v>
+        <v>-6.309733329986237</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.566407343382737</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.52724176491626</v>
+        <v>-12.48956211733778</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.271271686478451</v>
+        <v>-3.292455032476364</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.109421096507828</v>
+        <v>-5.99392080083812</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.514168893263852</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.1018236597311</v>
+        <v>-13.06473316578048</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.252248570449423</v>
+        <v>-3.281378944272264</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.941905081647943</v>
+        <v>-5.829337461814783</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.295237315097751</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.5170329520536</v>
+        <v>-13.48309770308784</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.37070772656136</v>
+        <v>-3.398594331614237</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.789903445655503</v>
+        <v>-5.683711777306264</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.947637982846902</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.20905280335871</v>
+        <v>-14.1648400966622</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.24312323536874</v>
+        <v>-3.272672562882516</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.749160199212052</v>
+        <v>-5.647302083103423</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5285400086077076</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.65093111656981</v>
+        <v>-14.60882627063082</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.323824190085139</v>
+        <v>-3.354944593939922</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.764072332148777</v>
+        <v>-5.656100110613063</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.900275737197743</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.21606036873291</v>
+        <v>-15.16980526279309</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.360207699682296</v>
+        <v>-3.391930349467799</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.494318524397854</v>
+        <v>-5.394110038447282</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.270592930869731</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.29618526212428</v>
+        <v>-15.25024437145266</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.465587645255349</v>
+        <v>-3.489742943998334</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.045854782857369</v>
+        <v>-4.945096420187445</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.507548161916791</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.99227681961317</v>
+        <v>-15.94201546900378</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.151935346076118</v>
+        <v>-3.182348765577447</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.684022809220586</v>
+        <v>-4.582282523837533</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.549866930065627</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.59085690553689</v>
+        <v>-16.54025515505361</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.091867860638279</v>
+        <v>-3.119479527331479</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.629794490850156</v>
+        <v>-4.533317311209477</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.360467039429532</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.36116872783552</v>
+        <v>-17.30781759375549</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.887274444130625</v>
+        <v>-2.922767677134545</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.39044101029772</v>
+        <v>-4.29084786258071</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.928312543737887</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.8690584319746</v>
+        <v>-17.81824720464586</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.759794691360739</v>
+        <v>-2.792486171556529</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.161194787539097</v>
+        <v>-4.052790520009605</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.266411325002122</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.29491176650742</v>
+        <v>-18.24002883299491</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.842040537812462</v>
+        <v>-2.875962694475374</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.074536835029712</v>
+        <v>-3.965962367563278</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.413635013062938</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.87668133558236</v>
+        <v>-18.81476783544384</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.618253805338838</v>
+        <v>-2.655632329951966</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.715284045052749</v>
+        <v>-3.602362933042861</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.418542070238611</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.1981497395581</v>
+        <v>-19.13618387020821</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.37691029475446</v>
+        <v>-2.412429712364063</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.35265344094262</v>
+        <v>-3.230947393725935</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.325325043426319</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.89710851136934</v>
+        <v>-19.82623987608707</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.136195214706484</v>
+        <v>-2.17188483225303</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.324897758918161</v>
+        <v>-3.19465553024867</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.170855317241399</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.46837805356521</v>
+        <v>-20.39110728219334</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.931091198388004</v>
+        <v>-1.972502152276383</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.299878368187622</v>
+        <v>-3.171089385133563</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.984939405696504</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.6715705936688</v>
+        <v>-20.58861776286362</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.798269786058693</v>
+        <v>-1.842403938938151</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.138738304811658</v>
+        <v>-3.000915632796808</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.783881163322476</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.21141860904453</v>
+        <v>-21.12203745754407</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.60733164141496</v>
+        <v>-1.644945827479239</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.282557251528019</v>
+        <v>-3.147693439955399</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.575901372972011</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.38091156163352</v>
+        <v>-21.28927853404427</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.418016942323601</v>
+        <v>-1.456259558924283</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.286406388563486</v>
+        <v>-3.157735236235002</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.365695202450888</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.48876595244366</v>
+        <v>-21.40073330813589</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.4343954131786</v>
+        <v>-1.469456600188743</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.487857652389125</v>
+        <v>-3.363284390850102</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.156018464292033</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.56923124570891</v>
+        <v>-21.48060944777326</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.251797065445047</v>
+        <v>-1.29961015542303</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.712875061329871</v>
+        <v>-3.59681179663797</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.952298571969918</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.48572853818438</v>
+        <v>-21.40301136883035</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.210621773007818</v>
+        <v>-1.250802050429076</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.743105188591417</v>
+        <v>-3.63004006125027</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.764432137146715</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.54972371447473</v>
+        <v>-21.46129830108172</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.055438707424839</v>
+        <v>-1.097451907243938</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.055945764994461</v>
+        <v>-3.941257192100941</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.608157940942166</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.58944576129653</v>
+        <v>-21.50088942487509</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.149847303216526</v>
+        <v>-1.189294411678646</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.242367065157799</v>
+        <v>-4.125518262295394</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.496087380085412</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.43167041975089</v>
+        <v>-21.34234163746179</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.218948477615156</v>
+        <v>-1.25660194058796</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.285047972421825</v>
+        <v>-4.169992815048737</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.443850732399435</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.30614142010442</v>
+        <v>-21.22377774292712</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.309075890377598</v>
+        <v>-1.344804784832669</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.589771321063</v>
+        <v>-4.482362068549479</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.461579565902736</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.26839631101172</v>
+        <v>-21.18183000462223</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.379983802568387</v>
+        <v>-1.416786265856478</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.497824078205558</v>
+        <v>-4.389288887647648</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.551629391652243</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.87658296386739</v>
+        <v>-20.78916565779318</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.532823345942697</v>
+        <v>-1.564991134024818</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.427138735163078</v>
+        <v>-4.321418389716141</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.704631671418242</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.61290398463503</v>
+        <v>-20.52546049395514</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.558549721026688</v>
+        <v>-1.593388338888521</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.397550130740778</v>
+        <v>-4.286907079425351</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.902793708726712</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.3774781949351</v>
+        <v>-20.2910951807854</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.73559693235535</v>
+        <v>-1.768419335579557</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.282128388888121</v>
+        <v>-4.177154304703161</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.121914748072675</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.08978793229102</v>
+        <v>-20.00593173258976</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.742706052798407</v>
+        <v>-1.775017856211787</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.121066879329207</v>
+        <v>-4.006090275773168</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.332364888935644</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.76989060465628</v>
+        <v>-19.68735672754204</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.813888903348872</v>
+        <v>-1.844917661083763</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.741861419821453</v>
+        <v>-3.637607412292788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.50584384709243</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.64457108185528</v>
+        <v>-19.55971986713805</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.755916186365709</v>
+        <v>-1.783593314573118</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.406816297798841</v>
+        <v>-3.30152799834568</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.615318587084808</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.26421349969745</v>
+        <v>-19.18619646706361</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.880816755475776</v>
+        <v>-1.919844910246961</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.549221275808295</v>
+        <v>-3.450963542981141</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.637823973229929</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.88122436466844</v>
+        <v>-18.8100807910265</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.732913010272796</v>
+        <v>-1.775397532994197</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.149081224056621</v>
+        <v>-3.045717493121194</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.554891941645486</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.32588815503095</v>
+        <v>-18.25973274877171</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.842534861966568</v>
+        <v>-1.882427108725308</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.057906427066841</v>
+        <v>-2.950012759348177</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.360965837492148</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.97710920732737</v>
+        <v>-17.91184407766136</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.132071139311341</v>
+        <v>-2.165377957740692</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.970816428563679</v>
+        <v>-2.861600438258001</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.061070368264038</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.79245536804766</v>
+        <v>-17.72849946866583</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.248409342362919</v>
+        <v>-2.280668776564931</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.777665684739695</v>
+        <v>-2.676475276075994</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.669066221931511</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.60926786668623</v>
+        <v>-17.55465987153339</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.173665385439504</v>
+        <v>-2.198645499261517</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.731750978673761</v>
+        <v>-2.6263055715865</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.208483944522129</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.17959157972362</v>
+        <v>-17.13062636709557</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.292910079721945</v>
+        <v>-2.319710023638959</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.54120560311528</v>
+        <v>-2.435000842463198</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>3.709606951152531</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.23658237399366</v>
+        <v>-17.19862778805549</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.192623039954324</v>
+        <v>-2.224463520465402</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.427119276152479</v>
+        <v>-2.317877101241117</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.20314395708014</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.11111883586139</v>
+        <v>-17.07156698897654</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.33292015720626</v>
+        <v>-2.36113406983018</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.204458481723244</v>
+        <v>-2.097821675077385</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>2.713566982517472</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.65922491097638</v>
+        <v>-16.61710697273454</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.355452010396871</v>
+        <v>-2.386153460560718</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.16794404909767</v>
+        <v>-2.055939398286704</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>2.262601602744656</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.36735820372578</v>
+        <v>-16.33550463091186</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.539935649739633</v>
+        <v>-2.57161902261661</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.982740333098613</v>
+        <v>-1.871495035852467</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.863427423791264</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90997860395008</v>
+        <v>-15.88164686060058</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.65095837783747</v>
+        <v>-2.679198475067073</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.883212646895811</v>
+        <v>-1.774533441006643</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.519332972739411</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.74500249584149</v>
+        <v>-15.71876552094667</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.553878952266071</v>
+        <v>-2.585509955931681</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.828146421143512</v>
+        <v>-1.723198521564235</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.225987116583903</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.2828572978314</v>
+        <v>-15.26053492148626</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.445160469468378</v>
+        <v>-2.470769013826794</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.842534861966568</v>
+        <v>-1.740873130400566</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.9775163361195623</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.9420122856499</v>
+        <v>-14.92474353820167</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.652660377206894</v>
+        <v>-2.677588121817541</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.041262926801128</v>
+        <v>-1.936773257821313</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.7628336958895665</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.56191654954891</v>
+        <v>-14.54230427989201</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.665386095569052</v>
+        <v>-2.695603130527756</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.074176976145228</v>
+        <v>-1.969386184200052</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.5666713412564516</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.65323536186995</v>
+        <v>-14.63288992325391</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.511158768093519</v>
+        <v>-2.535903220464381</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.96345537101275</v>
+        <v>-1.855339134145777</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3748271484730216</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.51029359944399</v>
+        <v>-14.48742134637949</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.66165478925916</v>
+        <v>-2.687695379611353</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.143841119566052</v>
+        <v>-2.040883250018719</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1747070185197004</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.4213444939373</v>
+        <v>-14.40534569986471</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.527445592828626</v>
+        <v>-2.552268599016539</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.485131270044167</v>
+        <v>-2.384660938036762</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04546744466949639</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.08132429683483</v>
+        <v>-14.06861167077552</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.523046579073806</v>
+        <v>-2.544020448226251</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.729630025613402</v>
+        <v>-2.617861036253586</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2911474136276413</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.77064395040067</v>
+        <v>-13.75545687910427</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.573949452522437</v>
+        <v>-2.596546767227256</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.894305010756632</v>
+        <v>-2.787668204110774</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5601144140783695</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.79136906579912</v>
+        <v>-13.77322313406049</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.432343104986328</v>
+        <v>-2.458265864612946</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.05691141205087</v>
+        <v>-2.951151789695407</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.8482391443630442</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.61375888544827</v>
+        <v>-13.58855620247795</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.412154774004386</v>
+        <v>-2.439151102464026</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.23022731706964</v>
+        <v>-3.124624802348277</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.150165033536081</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.52662961003658</v>
+        <v>-13.49588888296421</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.494950497175462</v>
+        <v>-2.527524146645677</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.219779659401942</v>
+        <v>-3.116651589917666</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.459769479632494</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.31363093510454</v>
+        <v>-13.28146314702242</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.374645326362841</v>
+        <v>-2.401929685484998</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.304421397273702</v>
+        <v>-3.20185629681162</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.770779415096656</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.21488878707224</v>
+        <v>-13.17616175526642</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.350241273865864</v>
+        <v>-2.380746339487085</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.568021822689014</v>
+        <v>-3.467302736927615</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.080686726073085</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.14322152131663</v>
+        <v>-13.10582990440066</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.408973344413847</v>
+        <v>-2.439779533000428</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.518153241164879</v>
+        <v>-3.421257107833265</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.38684119541977</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.22443307584386</v>
+        <v>-13.18003707690757</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.536138881915532</v>
+        <v>-2.566120255423085</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.468467951880529</v>
+        <v>-3.368796250346469</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.684730451038676</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.29223811226116</v>
+        <v>-13.24263137679386</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.582446357066717</v>
+        <v>-2.617834851647903</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.57185786742164</v>
+        <v>-3.475930564500313</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.970775889614881</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.10796394976387</v>
+        <v>-13.05454735416962</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.383600461506582</v>
+        <v>-2.418740202333775</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.406371159502222</v>
+        <v>-3.309880887558701</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.245875992452252</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.24634959080091</v>
+        <v>-13.19159758031681</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.649177824650995</v>
+        <v>-2.683767688758835</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.360574284161864</v>
+        <v>-3.26087639802212</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.509762467490837</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.15266107166552</v>
+        <v>-13.09965033745937</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.692500254754266</v>
+        <v>-2.723869412363042</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.201110035549641</v>
+        <v>-3.104292456035077</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.760493949147812</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.28126676247979</v>
+        <v>-13.22597796757918</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.755290939183185</v>
+        <v>-2.787694388716457</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.232557746975467</v>
+        <v>-3.126418447837594</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.997576077376166</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.42364555588356</v>
+        <v>-13.3635387935372</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.752345171043797</v>
+        <v>-2.78976297256545</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.129665338942342</v>
+        <v>-3.021627655892418</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.219018267540106</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.65975214533125</v>
+        <v>-13.60019525970424</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.808786088594478</v>
+        <v>-2.84908419674131</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.189366239900613</v>
+        <v>-3.084850386315114</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.420938389194139</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.88330321635372</v>
+        <v>-13.83814786385261</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.887667213215877</v>
+        <v>-2.926891752529688</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.048820368894683</v>
+        <v>-2.939931686160048</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.59762977493351</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.030107208118</v>
+        <v>-13.97696555088343</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.041069725612382</v>
+        <v>-3.083266217671265</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.699845036648475</v>
+        <v>-2.583284264448588</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.747053237383363</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.50857850777172</v>
+        <v>-14.46109272536478</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.164399218381441</v>
+        <v>-3.20763000236482</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.4353150577314</v>
+        <v>-2.315978717329067</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.866602059597418</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.2886310033846</v>
+        <v>-15.23869696034626</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.38154815331431</v>
+        <v>-3.421453492375891</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.284242975240723</v>
+        <v>-2.16582309603731</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.957395294697913</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.70140512737854</v>
+        <v>-15.65462632932505</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.294117754937263</v>
+        <v>-3.339862261066254</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.280930622621766</v>
+        <v>-2.150937147706268</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.022861748426974</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.13182767560313</v>
+        <v>-16.09625588878216</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.504576523118009</v>
+        <v>-3.549666414104914</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.108963224795694</v>
+        <v>-1.976534581551635</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.066043655881407</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.76583553301655</v>
+        <v>-16.73103619206324</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.65469286750124</v>
+        <v>-3.699939866122246</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.831144558494267</v>
+        <v>-1.700928514430459</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.087273680890878</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.46070950634116</v>
+        <v>-17.42953673327501</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.907570696889179</v>
+        <v>-3.953590141377847</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.851385258687575</v>
+        <v>-1.714688524717114</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.084922355239871</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.29889182657131</v>
+        <v>-18.2680463610762</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.14764425409791</v>
+        <v>-4.191987883822836</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.937742088231601</v>
+        <v>-1.79332089558452</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.058516551628156</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.07645678464426</v>
+        <v>-19.04550658072642</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.373434108906318</v>
+        <v>-4.420592583742216</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.70874461922697</v>
+        <v>-1.562988011690034</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.005657758862374</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.97388177523322</v>
+        <v>-19.94861363074869</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.535490633481204</v>
+        <v>-4.584665322954726</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.726288305034883</v>
+        <v>-1.578803513522839</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.927457812742177</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.18290357345525</v>
+        <v>-21.16590976436669</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.751984953271986</v>
+        <v>-4.803071118960401</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.696084362379021</v>
+        <v>-1.544488587774675</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.828805108471724</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.27101795493395</v>
+        <v>-22.25398486893686</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.803673364891121</v>
+        <v>-4.853437207992521</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.941394840724442</v>
+        <v>-1.789799066120096</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.721190656155378</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66437937716749</v>
+        <v>-23.65357822732306</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.838826198021155</v>
+        <v>-4.89013493285788</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.954552605080377</v>
+        <v>-1.795468033250563</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.615465880409908</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01994332109696</v>
+        <v>-25.0128342006539</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.100921008609669</v>
+        <v>-5.151810789755459</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.081050435137134</v>
+        <v>-1.925199662109227</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.523190218625015</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.56402333364445</v>
+        <v>-26.55712369004686</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.200461787115312</v>
+        <v>-5.25133847595826</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.289584634800147</v>
+        <v>-2.127999433127564</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.456065460028391</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09918748795672</v>
+        <v>-28.09277225956428</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.44536640407264</v>
+        <v>-5.501322906418177</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.544020448226251</v>
+        <v>-2.389753843842193</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.421753760749033</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.80769373189345</v>
+        <v>-29.79579282861032</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.592510795710799</v>
+        <v>-5.648729144113172</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.789671326445557</v>
+        <v>-2.628609816886644</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.424191548211629</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.52994689381399</v>
+        <v>-31.51829474428485</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.750862198581476</v>
+        <v>-5.805103609254747</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.222018443187877</v>
+        <v>-3.063234994323424</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.461836259210232</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.18134451275511</v>
+        <v>-33.16653711824112</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.711991151444392</v>
+        <v>-5.760759979529821</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.626282570334695</v>
+        <v>-3.472238535098946</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.532370942063131</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.17742318861035</v>
+        <v>-35.16003661043653</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.926115764420821</v>
+        <v>-5.975866515219381</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.82474878911242</v>
+        <v>-3.665402371225773</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.624362222750477</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.01135369377081</v>
+        <v>-36.98821959464948</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.25893519496034</v>
+        <v>-6.304378578123971</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.406374342856101</v>
+        <v>-4.252421953740244</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.725226319193699</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.10622688686971</v>
+        <v>-39.08287021860008</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.244769323285592</v>
+        <v>-6.291377921402137</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.742244279957742</v>
+        <v>-4.584599861440518</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.817681638632675</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.36580124971753</v>
+        <v>-41.33684107583164</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.459404536072849</v>
+        <v>-6.502059258731193</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.256562304792109</v>
+        <v>-5.100685347158518</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.887699985005767</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.30905248360641</v>
+        <v>-43.27921512543011</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.569170403097881</v>
+        <v>-6.612610663926728</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.51552805500145</v>
+        <v>-5.365778295097788</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.921508707568769</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.41710962566693</v>
+        <v>-45.38109270054935</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.692447526655573</v>
+        <v>-6.730087897325536</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.607422928647526</v>
+        <v>-5.459388260416128</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.917929279247664</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.58638637581537</v>
+        <v>-47.55013378924662</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.837536426747581</v>
+        <v>-6.872571429152041</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.077868646659268</v>
+        <v>-5.933251069469562</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.876454145644532</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.74073790072423</v>
+        <v>-49.69755948595222</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.257786255664147</v>
+        <v>-7.295033857248857</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.510399055641372</v>
+        <v>-6.3678631546035</v>
       </c>
     </row>
   </sheetData>
